--- a/DB/Basicinfo/Region-2023-08-18.xlsx
+++ b/DB/Basicinfo/Region-2023-08-18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB0784-6BC2-4813-9620-E4D647D787D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -145,12 +146,48 @@
   </si>
   <si>
     <t>name_ar</t>
+  </si>
+  <si>
+    <t>القاهرة</t>
+  </si>
+  <si>
+    <t>الإسكندرية</t>
+  </si>
+  <si>
+    <t>الدلتا</t>
+  </si>
+  <si>
+    <t>قناة السويس</t>
+  </si>
+  <si>
+    <t>شمال الصعيد</t>
+  </si>
+  <si>
+    <t>وسط الصعيد</t>
+  </si>
+  <si>
+    <t>جنوب الصعيد</t>
+  </si>
+  <si>
+    <t>الإسماعيلية</t>
+  </si>
+  <si>
+    <t>أسيوط</t>
+  </si>
+  <si>
+    <t>أسوان</t>
+  </si>
+  <si>
+    <t>المنيا</t>
+  </si>
+  <si>
+    <t>طنطا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -208,6 +245,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -216,12 +264,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Tablib Dataset" xfId="1"/>
+    <cellStyle name="Normal_Tablib Dataset" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,12 +568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,13 +607,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="1"/>
@@ -573,13 +621,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="1"/>
@@ -587,13 +635,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="1"/>
@@ -601,27 +649,27 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
@@ -629,238 +677,323 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DB/Basicinfo/Region-2023-08-18.xlsx
+++ b/DB/Basicinfo/Region-2023-08-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB0784-6BC2-4813-9620-E4D647D787D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C392A102-BB5D-4D2C-8121-0F815C33E3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,66 @@
   </si>
   <si>
     <t>طنطا</t>
+  </si>
+  <si>
+    <t>الداخلية</t>
+  </si>
+  <si>
+    <t>نزوى</t>
+  </si>
+  <si>
+    <t>شمال الباطنة</t>
+  </si>
+  <si>
+    <t>صحار</t>
+  </si>
+  <si>
+    <t>جنوب الباطنة</t>
+  </si>
+  <si>
+    <t>الرستاق</t>
+  </si>
+  <si>
+    <t>الوسطى</t>
+  </si>
+  <si>
+    <t>هيما</t>
+  </si>
+  <si>
+    <t>شمال الشرقية</t>
+  </si>
+  <si>
+    <t>إبراء</t>
+  </si>
+  <si>
+    <t>جنوب الشرقية</t>
+  </si>
+  <si>
+    <t>صور</t>
+  </si>
+  <si>
+    <t>الظاهرة</t>
+  </si>
+  <si>
+    <t>عبري</t>
+  </si>
+  <si>
+    <t>مسقط</t>
+  </si>
+  <si>
+    <t>مسندم</t>
+  </si>
+  <si>
+    <t>خصب</t>
+  </si>
+  <si>
+    <t>ظفار</t>
+  </si>
+  <si>
+    <t>صلالة</t>
+  </si>
+  <si>
+    <t>البريمي</t>
   </si>
 </sst>
 </file>
@@ -261,11 +321,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,21 +641,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,13 +680,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="1"/>
@@ -621,13 +694,13 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="1"/>
@@ -635,13 +708,13 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="1"/>
@@ -649,27 +722,27 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="1"/>
@@ -677,322 +750,476 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
